--- a/Experiment 2/Trace Files/newreno-reno/DroppedGraph.xlsx
+++ b/Experiment 2/Trace Files/newreno-reno/DroppedGraph.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Reno</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>CBR</t>
+  </si>
+  <si>
+    <t>T-Test Probabillity. One tailed, two-sample unequal variance</t>
   </si>
 </sst>
 </file>
@@ -500,11 +503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="346355472"/>
-        <c:axId val="346359824"/>
+        <c:axId val="-1789542848"/>
+        <c:axId val="-1789537408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="346355472"/>
+        <c:axId val="-1789542848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -603,7 +606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346359824"/>
+        <c:crossAx val="-1789537408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -611,7 +614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="346359824"/>
+        <c:axId val="-1789537408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160"/>
@@ -720,7 +723,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346355472"/>
+        <c:crossAx val="-1789542848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1098,11 +1101,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="346369072"/>
-        <c:axId val="346364720"/>
+        <c:axId val="-1789535232"/>
+        <c:axId val="-1789540672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="346369072"/>
+        <c:axId val="-1789535232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1201,7 +1204,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346364720"/>
+        <c:crossAx val="-1789540672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1209,7 +1212,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="346364720"/>
+        <c:axId val="-1789540672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1317,7 +1320,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346369072"/>
+        <c:crossAx val="-1789535232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2840,10 +2843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -3002,6 +3005,15 @@
         <v>92</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <f>TTEST(B2:B11,C2:C11,1,3)</f>
+        <v>0.15203300000856718</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Experiment 2/Trace Files/newreno-reno/DroppedGraph.xlsx
+++ b/Experiment 2/Trace Files/newreno-reno/DroppedGraph.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Reno</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>CBR</t>
-  </si>
-  <si>
-    <t>T-Test Probabillity. One tailed, two-sample unequal variance</t>
   </si>
 </sst>
 </file>
@@ -503,11 +500,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1789542848"/>
-        <c:axId val="-1789537408"/>
+        <c:axId val="-689144144"/>
+        <c:axId val="-689151760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1789542848"/>
+        <c:axId val="-689144144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1789537408"/>
+        <c:crossAx val="-689151760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -614,7 +611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1789537408"/>
+        <c:axId val="-689151760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160"/>
@@ -723,7 +720,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1789542848"/>
+        <c:crossAx val="-689144144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1101,11 +1098,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1789535232"/>
-        <c:axId val="-1789540672"/>
+        <c:axId val="-689143600"/>
+        <c:axId val="-689146864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1789535232"/>
+        <c:axId val="-689143600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,7 +1201,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1789540672"/>
+        <c:crossAx val="-689146864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1212,7 +1209,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1789540672"/>
+        <c:axId val="-689146864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1320,7 +1317,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1789535232"/>
+        <c:crossAx val="-689143600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2843,10 +2840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -3005,15 +3002,6 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <f>TTEST(B2:B11,C2:C11,1,3)</f>
-        <v>0.15203300000856718</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Experiment 2/Trace Files/newreno-reno/DroppedGraph.xlsx
+++ b/Experiment 2/Trace Files/newreno-reno/DroppedGraph.xlsx
@@ -500,11 +500,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-689144144"/>
-        <c:axId val="-689151760"/>
+        <c:axId val="1077382032"/>
+        <c:axId val="1077377136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-689144144"/>
+        <c:axId val="1077382032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -603,7 +603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-689151760"/>
+        <c:crossAx val="1077377136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -611,7 +611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-689151760"/>
+        <c:axId val="1077377136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160"/>
@@ -720,7 +720,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-689144144"/>
+        <c:crossAx val="1077382032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -836,7 +836,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Experiment 2: Dropped Packets. No CBR</a:t>
+              <a:t>Experiment 2: Dropped Packets</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1098,11 +1098,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-689143600"/>
-        <c:axId val="-689146864"/>
+        <c:axId val="1077374416"/>
+        <c:axId val="1077368976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-689143600"/>
+        <c:axId val="1077374416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1201,7 +1201,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-689146864"/>
+        <c:crossAx val="1077368976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1209,7 +1209,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-689146864"/>
+        <c:axId val="1077368976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1317,7 +1317,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-689143600"/>
+        <c:crossAx val="1077374416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2550,10 +2550,10 @@
       <xdr:rowOff>76841</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>361149</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>53789</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>230521</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>153680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2842,8 +2842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="B15:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
